--- a/wholesale_customers.xlsx
+++ b/wholesale_customers.xlsx
@@ -1778,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3444,6 +3444,26 @@
         <v>45400.462822013891</v>
       </c>
     </row>
+    <row r="84" ht="15.35" customHeight="1">
+      <c r="A84" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F84" s="5">
+        <v>45643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
